--- a/data/FIGURE_and_SUPPLEMENT_parameter/parameter_explanation_240106.xlsx
+++ b/data/FIGURE_and_SUPPLEMENT_parameter/parameter_explanation_240106.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\PROGNOSIS\multiagemodell\paper\Modelling-dynamics-of-SARS-CoV-2-pandemics-of-Germany\data\FIGURE_and_SUPPLEMENT_parameter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39B0012-7B87-4E7D-92BC-1DD3F5BA3F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3D212A-1116-4503-874B-86CDC7D4957A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="287">
   <si>
     <t>Parameter</t>
   </si>
@@ -636,9 +636,6 @@
     <t>Initial fraction BA2 variant</t>
   </si>
   <si>
-    <t>Initial fraction BA5 variant</t>
-  </si>
-  <si>
     <t>basicpaper</t>
   </si>
   <si>
@@ -804,42 +801,6 @@
     <t>parameter_explanation_230925</t>
   </si>
   <si>
-    <t>Initial number alpha variant</t>
-  </si>
-  <si>
-    <t>Initial number delta variant</t>
-  </si>
-  <si>
-    <t>Initial number BA1 variant</t>
-  </si>
-  <si>
-    <t>Initial number BA2 variant</t>
-  </si>
-  <si>
-    <t>Initial number BAX variant</t>
-  </si>
-  <si>
-    <t>Initial number BAY variant</t>
-  </si>
-  <si>
-    <t>Initial date alpha variant</t>
-  </si>
-  <si>
-    <t>Initial date delta variant</t>
-  </si>
-  <si>
-    <t>Initial date BA1 variant</t>
-  </si>
-  <si>
-    <t>Initial date BA2 variant</t>
-  </si>
-  <si>
-    <t>Initial number of wildtype</t>
-  </si>
-  <si>
-    <t>Initial date BA5 variant</t>
-  </si>
-  <si>
     <t xml:space="preserve">Probability of death </t>
   </si>
   <si>
@@ -892,6 +853,51 @@
   </si>
   <si>
     <t>Fraction of registered cases (For fitting provided incidence of  positive tests, depricated as single number, now time variant parameter)</t>
+  </si>
+  <si>
+    <t>Initial number BA1</t>
+  </si>
+  <si>
+    <t>Initial number BA2</t>
+  </si>
+  <si>
+    <t>Initial number BAX</t>
+  </si>
+  <si>
+    <t>Initial number BAY</t>
+  </si>
+  <si>
+    <t>Initial date BA1</t>
+  </si>
+  <si>
+    <t>Initial date BA2</t>
+  </si>
+  <si>
+    <t>Initial date BA5</t>
+  </si>
+  <si>
+    <t>Initial number Alpha</t>
+  </si>
+  <si>
+    <t>Initial number Delta</t>
+  </si>
+  <si>
+    <t>Initial date Alpha</t>
+  </si>
+  <si>
+    <t>Initial date Delta</t>
+  </si>
+  <si>
+    <t>Initial number of Wildtype</t>
+  </si>
+  <si>
+    <t>dateallele_Wildtype</t>
+  </si>
+  <si>
+    <t>Initial date Wildtype</t>
+  </si>
+  <si>
+    <t>Initial number BA5</t>
   </si>
 </sst>
 </file>
@@ -1231,23 +1237,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F8F582-6BE7-4044-AA3E-59E083F8B618}">
-  <dimension ref="A1:D204"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1256,27 +1263,27 @@
         <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D65" si="0">B2&amp;": "&amp;C2</f>
         <v>r1: Basic infection rate</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1289,9 +1296,9 @@
         <v>r2: Infection rate through symptomatic people</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1304,7 +1311,7 @@
         <v>r3: Reverse of transit time for compartment E (latent time)</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -1312,31 +1319,31 @@
         <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>r3_Omicron_BA2_BA5: Reverse of transit time for compartment E (latent time) for Omicron BA1, BA2, BA5 variants</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>r4: Reverse of transit time for every asymptomatic sub-compartment (recovery rate of asymptomatic)</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1349,7 +1356,7 @@
         <v>rb4: Rate   of development of symptoms (equal to the time from being infectious to start to develop symptoms)</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>189</v>
       </c>
@@ -1357,14 +1364,14 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>r5: Reverse of transit time for every infectious sub-compartment</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>189</v>
       </c>
@@ -1372,61 +1379,61 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>r6: General rate of development of critical state (C compartment ICU)</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>r7: Reverse of transit time for every critical state sub-compartment</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>r8: General rate of death</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>r9: General rate hospitalisation (N compartment)</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1439,54 +1446,54 @@
         <v>psymp: Probability of symptoms development</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>pcrit: Probability of onset of critical state (ICU)</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">pdeath: Probability of death </v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>influx: Initial number of wildtype</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <f>B16&amp;": "&amp;C16</f>
+        <v>dateallele_BA2: Initial date BA2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1495,28 +1502,28 @@
         <v>153</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f>B17&amp;": "&amp;C17</f>
         <v>Iainit: Initial value for asymptomatic first compartment</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f>B18&amp;": "&amp;C18</f>
         <v>procentmeas: Fraction of registered cases (For fitting provided incidence of  positive tests, depricated as single number, now time variant parameter)</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1525,13 +1532,13 @@
         <v>170</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
+        <f>B19&amp;": "&amp;C19</f>
         <v>influx_start: weg!</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1540,13 +1547,13 @@
         <v>166</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
+        <f>B20&amp;": "&amp;C20</f>
         <v>treat1: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1555,13 +1562,13 @@
         <v>166</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
+        <f>B21&amp;": "&amp;C21</f>
         <v>treat2: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1570,13 +1577,13 @@
         <v>166</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
+        <f>B22&amp;": "&amp;C22</f>
         <v>treat3: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1585,13 +1592,13 @@
         <v>166</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
+        <f>B23&amp;": "&amp;C23</f>
         <v>treat4: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1600,13 +1607,13 @@
         <v>166</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="0"/>
+        <f>B24&amp;": "&amp;C24</f>
         <v>treat5: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1615,13 +1622,13 @@
         <v>166</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="0"/>
+        <f>B25&amp;": "&amp;C25</f>
         <v>treat6: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -1630,13 +1637,13 @@
         <v>166</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="0"/>
+        <f>B26&amp;": "&amp;C26</f>
         <v>treat7: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -1645,13 +1652,13 @@
         <v>166</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="0"/>
+        <f>B27&amp;": "&amp;C27</f>
         <v>treat8: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -1660,13 +1667,13 @@
         <v>166</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="0"/>
+        <f>B28&amp;": "&amp;C28</f>
         <v>treat9: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -1675,13 +1682,13 @@
         <v>166</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="0"/>
+        <f>B29&amp;": "&amp;C29</f>
         <v>treat10: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -1690,13 +1697,13 @@
         <v>166</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="0"/>
+        <f>B30&amp;": "&amp;C30</f>
         <v>treat11: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -1705,13 +1712,13 @@
         <v>166</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="0"/>
+        <f>B31&amp;": "&amp;C31</f>
         <v>treat12: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -1720,13 +1727,13 @@
         <v>166</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="0"/>
+        <f>B32&amp;": "&amp;C32</f>
         <v>treat13: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -1735,13 +1742,13 @@
         <v>166</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="0"/>
+        <f>B33&amp;": "&amp;C33</f>
         <v>treat14: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -1750,13 +1757,13 @@
         <v>166</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="0"/>
+        <f>B34&amp;": "&amp;C34</f>
         <v>treat15: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -1765,13 +1772,13 @@
         <v>166</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="0"/>
+        <f>B35&amp;": "&amp;C35</f>
         <v>treat16: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -1780,13 +1787,13 @@
         <v>166</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="0"/>
+        <f>B36&amp;": "&amp;C36</f>
         <v>treat17: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -1795,13 +1802,13 @@
         <v>166</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="0"/>
+        <f>B37&amp;": "&amp;C37</f>
         <v>treat18: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
@@ -1810,13 +1817,13 @@
         <v>166</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="0"/>
+        <f>B38&amp;": "&amp;C38</f>
         <v>treat19: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -1825,13 +1832,13 @@
         <v>166</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="0"/>
+        <f>B39&amp;": "&amp;C39</f>
         <v>treat20: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
@@ -1840,13 +1847,13 @@
         <v>166</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="0"/>
+        <f>B40&amp;": "&amp;C40</f>
         <v>treat21: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
@@ -1855,13 +1862,13 @@
         <v>166</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="0"/>
+        <f>B41&amp;": "&amp;C41</f>
         <v>treat22: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
@@ -1870,13 +1877,13 @@
         <v>166</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="0"/>
+        <f>B42&amp;": "&amp;C42</f>
         <v>treat23: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
@@ -1885,13 +1892,13 @@
         <v>166</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="0"/>
+        <f>B43&amp;": "&amp;C43</f>
         <v>treat24: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
@@ -1900,13 +1907,13 @@
         <v>166</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="0"/>
+        <f>B44&amp;": "&amp;C44</f>
         <v>treat25: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
@@ -1915,13 +1922,13 @@
         <v>166</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="0"/>
+        <f>B45&amp;": "&amp;C45</f>
         <v>treat26: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
@@ -1930,13 +1937,13 @@
         <v>166</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="0"/>
+        <f>B46&amp;": "&amp;C46</f>
         <v>treat27: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
@@ -1945,13 +1952,13 @@
         <v>166</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="0"/>
+        <f>B47&amp;": "&amp;C47</f>
         <v>treat28: Dynamical infecting intensity update</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
@@ -1960,13 +1967,13 @@
         <v>171</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="0"/>
+        <f>B48&amp;": "&amp;C48</f>
         <v>blockeff_r2: Proporzionalitätsfaktor zwischen dynamischen Parametern b1 und b2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
@@ -1975,13 +1982,13 @@
         <v>170</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="0"/>
+        <f>B49&amp;": "&amp;C49</f>
         <v>powcrit: weg!</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
@@ -1990,13 +1997,13 @@
         <v>169</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="0"/>
+        <f>B50&amp;": "&amp;C50</f>
         <v>death_exp1: relative values of p_death in different time intervals</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
@@ -2005,13 +2012,13 @@
         <v>169</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="0"/>
+        <f>B51&amp;": "&amp;C51</f>
         <v>death_exp2: relative values of p_death in different time intervals</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
@@ -2020,13 +2027,13 @@
         <v>169</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="0"/>
+        <f>B52&amp;": "&amp;C52</f>
         <v>death_exp3: relative values of p_death in different time intervals</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
@@ -2035,13 +2042,13 @@
         <v>169</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="0"/>
+        <f>B53&amp;": "&amp;C53</f>
         <v>death_exp4: relative values of p_death in different time intervals</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
@@ -2050,13 +2057,13 @@
         <v>169</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="0"/>
+        <f>B54&amp;": "&amp;C54</f>
         <v>death_exp5: relative values of p_death in different time intervals</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
@@ -2065,13 +2072,13 @@
         <v>169</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="0"/>
+        <f>B55&amp;": "&amp;C55</f>
         <v>death_exp6: relative values of p_death in different time intervals</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
@@ -2080,13 +2087,13 @@
         <v>169</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="0"/>
+        <f>B56&amp;": "&amp;C56</f>
         <v>death_exp7: relative values of p_death in different time intervals</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
@@ -2095,13 +2102,13 @@
         <v>169</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="0"/>
+        <f>B57&amp;": "&amp;C57</f>
         <v>death_exp8: relative values of p_death in different time intervals</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
@@ -2110,13 +2117,13 @@
         <v>169</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="0"/>
+        <f>B58&amp;": "&amp;C58</f>
         <v>death_exp9: relative values of p_death in different time intervals</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
@@ -2125,13 +2132,13 @@
         <v>169</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="0"/>
+        <f>B59&amp;": "&amp;C59</f>
         <v>death_exp10: relative values of p_death in different time intervals</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B60" t="s">
         <v>58</v>
@@ -2140,13 +2147,13 @@
         <v>169</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="0"/>
+        <f>B60&amp;": "&amp;C60</f>
         <v>death_exp11: relative values of p_death in different time intervals</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
@@ -2155,13 +2162,13 @@
         <v>169</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="0"/>
+        <f>B61&amp;": "&amp;C61</f>
         <v>death_exp12: relative values of p_death in different time intervals</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
@@ -2170,13 +2177,13 @@
         <v>169</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="0"/>
+        <f>B62&amp;": "&amp;C62</f>
         <v>death_exp13: relative values of p_death in different time intervals</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B63" t="s">
         <v>61</v>
@@ -2185,13 +2192,13 @@
         <v>169</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="0"/>
+        <f>B63&amp;": "&amp;C63</f>
         <v>death_exp14: relative values of p_death in different time intervals</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B64" t="s">
         <v>62</v>
@@ -2200,13 +2207,13 @@
         <v>169</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="0"/>
+        <f>B64&amp;": "&amp;C64</f>
         <v>death_exp15: relative values of p_death in different time intervals</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B65" t="s">
         <v>63</v>
@@ -2215,13 +2222,13 @@
         <v>169</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="0"/>
+        <f>B65&amp;": "&amp;C65</f>
         <v>death_exp16: relative values of p_death in different time intervals</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B66" t="s">
         <v>64</v>
@@ -2230,13 +2237,13 @@
         <v>169</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" ref="D66:D129" si="1">B66&amp;": "&amp;C66</f>
+        <f>B66&amp;": "&amp;C66</f>
         <v>death_exp17: relative values of p_death in different time intervals</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
@@ -2245,13 +2252,13 @@
         <v>169</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="1"/>
+        <f>B67&amp;": "&amp;C67</f>
         <v>death_exp18: relative values of p_death in different time intervals</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B68" t="s">
         <v>66</v>
@@ -2260,13 +2267,13 @@
         <v>167</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="1"/>
+        <f>B68&amp;": "&amp;C68</f>
         <v xml:space="preserve">crit_exp1: New estimation relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
@@ -2275,13 +2282,13 @@
         <v>167</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="1"/>
+        <f>B69&amp;": "&amp;C69</f>
         <v xml:space="preserve">crit_exp2: New estimation relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B70" t="s">
         <v>68</v>
@@ -2290,13 +2297,13 @@
         <v>167</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="1"/>
+        <f>B70&amp;": "&amp;C70</f>
         <v xml:space="preserve">crit_exp3: New estimation relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B71" t="s">
         <v>69</v>
@@ -2305,13 +2312,13 @@
         <v>167</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="1"/>
+        <f>B71&amp;": "&amp;C71</f>
         <v xml:space="preserve">crit_exp4: New estimation relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B72" t="s">
         <v>70</v>
@@ -2320,13 +2327,13 @@
         <v>167</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="1"/>
+        <f>B72&amp;": "&amp;C72</f>
         <v xml:space="preserve">crit_exp5: New estimation relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B73" t="s">
         <v>71</v>
@@ -2335,13 +2342,13 @@
         <v>167</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="1"/>
+        <f>B73&amp;": "&amp;C73</f>
         <v xml:space="preserve">crit_exp6: New estimation relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B74" t="s">
         <v>72</v>
@@ -2350,13 +2357,13 @@
         <v>167</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="1"/>
+        <f>B74&amp;": "&amp;C74</f>
         <v xml:space="preserve">crit_exp7: New estimation relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B75" t="s">
         <v>73</v>
@@ -2365,13 +2372,13 @@
         <v>167</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="1"/>
+        <f>B75&amp;": "&amp;C75</f>
         <v xml:space="preserve">crit_exp8: New estimation relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B76" t="s">
         <v>74</v>
@@ -2380,13 +2387,13 @@
         <v>167</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="1"/>
+        <f>B76&amp;": "&amp;C76</f>
         <v xml:space="preserve">crit_exp9: New estimation relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B77" t="s">
         <v>75</v>
@@ -2395,13 +2402,13 @@
         <v>167</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="1"/>
+        <f>B77&amp;": "&amp;C77</f>
         <v xml:space="preserve">crit_exp10: New estimation relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B78" t="s">
         <v>76</v>
@@ -2410,13 +2417,13 @@
         <v>167</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="1"/>
+        <f>B78&amp;": "&amp;C78</f>
         <v xml:space="preserve">crit_exp11: New estimation relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B79" t="s">
         <v>77</v>
@@ -2425,13 +2432,13 @@
         <v>167</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="1"/>
+        <f>B79&amp;": "&amp;C79</f>
         <v xml:space="preserve">crit_exp12: New estimation relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B80" t="s">
         <v>78</v>
@@ -2440,13 +2447,13 @@
         <v>167</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="1"/>
+        <f>B80&amp;": "&amp;C80</f>
         <v xml:space="preserve">crit_exp13: New estimation relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B81" t="s">
         <v>79</v>
@@ -2455,13 +2462,13 @@
         <v>167</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="1"/>
+        <f>B81&amp;": "&amp;C81</f>
         <v xml:space="preserve">crit_exp14: New estimation relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B82" t="s">
         <v>80</v>
@@ -2470,13 +2477,13 @@
         <v>167</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="1"/>
+        <f>B82&amp;": "&amp;C82</f>
         <v xml:space="preserve">crit_exp15: New estimation relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B83" t="s">
         <v>81</v>
@@ -2485,13 +2492,13 @@
         <v>167</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="1"/>
+        <f>B83&amp;": "&amp;C83</f>
         <v xml:space="preserve">crit_exp16: New estimation relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B84" t="s">
         <v>82</v>
@@ -2500,13 +2507,13 @@
         <v>167</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="1"/>
+        <f>B84&amp;": "&amp;C84</f>
         <v xml:space="preserve">crit_exp17: New estimation relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B85" t="s">
         <v>83</v>
@@ -2515,13 +2522,13 @@
         <v>167</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="1"/>
+        <f>B85&amp;": "&amp;C85</f>
         <v xml:space="preserve">crit_exp18: New estimation relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B86" t="s">
         <v>84</v>
@@ -2530,13 +2537,13 @@
         <v>158</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="1"/>
+        <f>B86&amp;": "&amp;C86</f>
         <v>spdeath: Probability of the death at I_(S,2)</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B87" t="s">
         <v>85</v>
@@ -2545,13 +2552,13 @@
         <v>162</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="1"/>
+        <f>B87&amp;": "&amp;C87</f>
         <v>death_date1: Date of new estimation pdeath</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B88" t="s">
         <v>86</v>
@@ -2560,13 +2567,13 @@
         <v>162</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="1"/>
+        <f>B88&amp;": "&amp;C88</f>
         <v>death_date2: Date of new estimation pdeath</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B89" t="s">
         <v>87</v>
@@ -2575,13 +2582,13 @@
         <v>162</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="1"/>
+        <f>B89&amp;": "&amp;C89</f>
         <v>death_date3: Date of new estimation pdeath</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B90" t="s">
         <v>88</v>
@@ -2590,13 +2597,13 @@
         <v>162</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="1"/>
+        <f>B90&amp;": "&amp;C90</f>
         <v>death_date4: Date of new estimation pdeath</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B91" t="s">
         <v>89</v>
@@ -2605,13 +2612,13 @@
         <v>162</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="1"/>
+        <f>B91&amp;": "&amp;C91</f>
         <v>death_date5: Date of new estimation pdeath</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B92" t="s">
         <v>90</v>
@@ -2620,13 +2627,13 @@
         <v>162</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="1"/>
+        <f>B92&amp;": "&amp;C92</f>
         <v>death_date6: Date of new estimation pdeath</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B93" t="s">
         <v>91</v>
@@ -2635,13 +2642,13 @@
         <v>162</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="1"/>
+        <f>B93&amp;": "&amp;C93</f>
         <v>death_date7: Date of new estimation pdeath</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B94" t="s">
         <v>92</v>
@@ -2650,13 +2657,13 @@
         <v>162</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="1"/>
+        <f>B94&amp;": "&amp;C94</f>
         <v>death_date8: Date of new estimation pdeath</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B95" t="s">
         <v>93</v>
@@ -2665,13 +2672,13 @@
         <v>162</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="1"/>
+        <f>B95&amp;": "&amp;C95</f>
         <v>death_date9: Date of new estimation pdeath</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B96" t="s">
         <v>94</v>
@@ -2680,13 +2687,13 @@
         <v>162</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="1"/>
+        <f>B96&amp;": "&amp;C96</f>
         <v>death_date10: Date of new estimation pdeath</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B97" t="s">
         <v>95</v>
@@ -2695,13 +2702,13 @@
         <v>162</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="1"/>
+        <f>B97&amp;": "&amp;C97</f>
         <v>death_date11: Date of new estimation pdeath</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B98" t="s">
         <v>96</v>
@@ -2710,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="1"/>
+        <f>B98&amp;": "&amp;C98</f>
         <v>death_date12: Date of new estimation pdeath</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B99" t="s">
         <v>97</v>
@@ -2725,13 +2732,13 @@
         <v>162</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="1"/>
+        <f>B99&amp;": "&amp;C99</f>
         <v>death_date13: Date of new estimation pdeath</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B100" t="s">
         <v>98</v>
@@ -2740,13 +2747,13 @@
         <v>162</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="1"/>
+        <f>B100&amp;": "&amp;C100</f>
         <v>death_date14: Date of new estimation pdeath</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B101" t="s">
         <v>99</v>
@@ -2755,13 +2762,13 @@
         <v>162</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="1"/>
+        <f>B101&amp;": "&amp;C101</f>
         <v>death_date15: Date of new estimation pdeath</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B102" t="s">
         <v>100</v>
@@ -2770,13 +2777,13 @@
         <v>162</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="1"/>
+        <f>B102&amp;": "&amp;C102</f>
         <v>death_date16: Date of new estimation pdeath</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B103" t="s">
         <v>101</v>
@@ -2785,13 +2792,13 @@
         <v>162</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="1"/>
+        <f>B103&amp;": "&amp;C103</f>
         <v>death_date17: Date of new estimation pdeath</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B104" t="s">
         <v>102</v>
@@ -2800,13 +2807,13 @@
         <v>162</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="1"/>
+        <f>B104&amp;": "&amp;C104</f>
         <v>death_date18: Date of new estimation pdeath</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B105" t="s">
         <v>103</v>
@@ -2815,13 +2822,13 @@
         <v>168</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="1"/>
+        <f>B105&amp;": "&amp;C105</f>
         <v xml:space="preserve">crit_date1: Date of new estimation  relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B106" t="s">
         <v>104</v>
@@ -2830,13 +2837,13 @@
         <v>168</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="1"/>
+        <f>B106&amp;": "&amp;C106</f>
         <v xml:space="preserve">crit_date2: Date of new estimation  relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B107" t="s">
         <v>105</v>
@@ -2845,13 +2852,13 @@
         <v>168</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="1"/>
+        <f>B107&amp;": "&amp;C107</f>
         <v xml:space="preserve">crit_date3: Date of new estimation  relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B108" t="s">
         <v>106</v>
@@ -2860,13 +2867,13 @@
         <v>168</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="1"/>
+        <f>B108&amp;": "&amp;C108</f>
         <v xml:space="preserve">crit_date4: Date of new estimation  relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B109" t="s">
         <v>107</v>
@@ -2875,13 +2882,13 @@
         <v>168</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="1"/>
+        <f>B109&amp;": "&amp;C109</f>
         <v xml:space="preserve">crit_date5: Date of new estimation  relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B110" t="s">
         <v>108</v>
@@ -2890,13 +2897,13 @@
         <v>168</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="1"/>
+        <f>B110&amp;": "&amp;C110</f>
         <v xml:space="preserve">crit_date6: Date of new estimation  relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B111" t="s">
         <v>109</v>
@@ -2905,13 +2912,13 @@
         <v>168</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="1"/>
+        <f>B111&amp;": "&amp;C111</f>
         <v xml:space="preserve">crit_date7: Date of new estimation  relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B112" t="s">
         <v>110</v>
@@ -2920,13 +2927,13 @@
         <v>168</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="1"/>
+        <f>B112&amp;": "&amp;C112</f>
         <v xml:space="preserve">crit_date8: Date of new estimation  relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B113" t="s">
         <v>111</v>
@@ -2935,13 +2942,13 @@
         <v>168</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="1"/>
+        <f>B113&amp;": "&amp;C113</f>
         <v xml:space="preserve">crit_date9: Date of new estimation  relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B114" t="s">
         <v>112</v>
@@ -2950,13 +2957,13 @@
         <v>168</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="1"/>
+        <f>B114&amp;": "&amp;C114</f>
         <v xml:space="preserve">crit_date10: Date of new estimation  relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B115" t="s">
         <v>113</v>
@@ -2965,13 +2972,13 @@
         <v>168</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="1"/>
+        <f>B115&amp;": "&amp;C115</f>
         <v xml:space="preserve">crit_date11: Date of new estimation  relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B116" t="s">
         <v>114</v>
@@ -2980,13 +2987,13 @@
         <v>168</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="1"/>
+        <f>B116&amp;": "&amp;C116</f>
         <v xml:space="preserve">crit_date12: Date of new estimation  relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B117" t="s">
         <v>115</v>
@@ -2995,13 +3002,13 @@
         <v>168</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="1"/>
+        <f>B117&amp;": "&amp;C117</f>
         <v xml:space="preserve">crit_date13: Date of new estimation  relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B118" t="s">
         <v>116</v>
@@ -3010,13 +3017,13 @@
         <v>168</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="1"/>
+        <f>B118&amp;": "&amp;C118</f>
         <v xml:space="preserve">crit_date14: Date of new estimation  relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B119" t="s">
         <v>117</v>
@@ -3025,13 +3032,13 @@
         <v>168</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="1"/>
+        <f>B119&amp;": "&amp;C119</f>
         <v xml:space="preserve">crit_date15: Date of new estimation  relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B120" t="s">
         <v>118</v>
@@ -3040,13 +3047,13 @@
         <v>168</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="1"/>
+        <f>B120&amp;": "&amp;C120</f>
         <v xml:space="preserve">crit_date16: Date of new estimation  relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B121" t="s">
         <v>119</v>
@@ -3055,13 +3062,13 @@
         <v>168</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="1"/>
+        <f>B121&amp;": "&amp;C121</f>
         <v xml:space="preserve">crit_date17: Date of new estimation  relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B122" t="s">
         <v>120</v>
@@ -3070,13 +3077,13 @@
         <v>168</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="1"/>
+        <f>B122&amp;": "&amp;C122</f>
         <v xml:space="preserve">crit_date18: Date of new estimation  relative values of p_crit in different time intervals </v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B123" t="s">
         <v>121</v>
@@ -3085,13 +3092,13 @@
         <v>165</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="1"/>
+        <f>B123&amp;": "&amp;C123</f>
         <v>date_treat1: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B124" t="s">
         <v>122</v>
@@ -3100,13 +3107,13 @@
         <v>165</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="1"/>
+        <f>B124&amp;": "&amp;C124</f>
         <v>date_treat2: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B125" t="s">
         <v>123</v>
@@ -3115,13 +3122,13 @@
         <v>165</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="1"/>
+        <f>B125&amp;": "&amp;C125</f>
         <v>date_treat3: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B126" t="s">
         <v>124</v>
@@ -3130,13 +3137,13 @@
         <v>165</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="1"/>
+        <f>B126&amp;": "&amp;C126</f>
         <v>date_treat4: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B127" t="s">
         <v>125</v>
@@ -3145,13 +3152,13 @@
         <v>165</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="1"/>
+        <f>B127&amp;": "&amp;C127</f>
         <v>date_treat5: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B128" t="s">
         <v>126</v>
@@ -3160,13 +3167,13 @@
         <v>165</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="1"/>
+        <f>B128&amp;": "&amp;C128</f>
         <v>date_treat6: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B129" t="s">
         <v>127</v>
@@ -3175,13 +3182,13 @@
         <v>165</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="1"/>
+        <f>B129&amp;": "&amp;C129</f>
         <v>date_treat7: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B130" t="s">
         <v>128</v>
@@ -3190,13 +3197,13 @@
         <v>165</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" ref="D130:D193" si="2">B130&amp;": "&amp;C130</f>
+        <f>B130&amp;": "&amp;C130</f>
         <v>date_treat8: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B131" t="s">
         <v>129</v>
@@ -3205,13 +3212,13 @@
         <v>165</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="2"/>
+        <f>B131&amp;": "&amp;C131</f>
         <v>date_treat9: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B132" t="s">
         <v>130</v>
@@ -3220,13 +3227,13 @@
         <v>165</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="2"/>
+        <f>B132&amp;": "&amp;C132</f>
         <v>date_treat10: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B133" t="s">
         <v>131</v>
@@ -3235,13 +3242,13 @@
         <v>165</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="2"/>
+        <f>B133&amp;": "&amp;C133</f>
         <v>date_treat11: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B134" t="s">
         <v>132</v>
@@ -3250,13 +3257,13 @@
         <v>165</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="2"/>
+        <f>B134&amp;": "&amp;C134</f>
         <v>date_treat12: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B135" t="s">
         <v>133</v>
@@ -3265,13 +3272,13 @@
         <v>165</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="2"/>
+        <f>B135&amp;": "&amp;C135</f>
         <v>date_treat13: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B136" t="s">
         <v>134</v>
@@ -3280,13 +3287,13 @@
         <v>165</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="2"/>
+        <f>B136&amp;": "&amp;C136</f>
         <v>date_treat14: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B137" t="s">
         <v>135</v>
@@ -3295,13 +3302,13 @@
         <v>165</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="2"/>
+        <f>B137&amp;": "&amp;C137</f>
         <v>date_treat15: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B138" t="s">
         <v>136</v>
@@ -3310,13 +3317,13 @@
         <v>165</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="2"/>
+        <f>B138&amp;": "&amp;C138</f>
         <v>date_treat16: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B139" t="s">
         <v>137</v>
@@ -3325,13 +3332,13 @@
         <v>165</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="2"/>
+        <f>B139&amp;": "&amp;C139</f>
         <v>date_treat17: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B140" t="s">
         <v>138</v>
@@ -3340,13 +3347,13 @@
         <v>165</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="2"/>
+        <f>B140&amp;": "&amp;C140</f>
         <v>date_treat18: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B141" t="s">
         <v>139</v>
@@ -3355,13 +3362,13 @@
         <v>165</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="2"/>
+        <f>B141&amp;": "&amp;C141</f>
         <v>date_treat19: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B142" t="s">
         <v>140</v>
@@ -3370,13 +3377,13 @@
         <v>165</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="2"/>
+        <f>B142&amp;": "&amp;C142</f>
         <v>date_treat20: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B143" t="s">
         <v>141</v>
@@ -3385,13 +3392,13 @@
         <v>165</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="2"/>
+        <f>B143&amp;": "&amp;C143</f>
         <v>date_treat21: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B144" t="s">
         <v>142</v>
@@ -3400,13 +3407,13 @@
         <v>165</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="2"/>
+        <f>B144&amp;": "&amp;C144</f>
         <v>date_treat22: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B145" t="s">
         <v>143</v>
@@ -3415,13 +3422,13 @@
         <v>165</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="2"/>
+        <f>B145&amp;": "&amp;C145</f>
         <v>date_treat23: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B146" t="s">
         <v>144</v>
@@ -3430,13 +3437,13 @@
         <v>165</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="2"/>
+        <f>B146&amp;": "&amp;C146</f>
         <v>date_treat24: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B147" t="s">
         <v>145</v>
@@ -3445,13 +3452,13 @@
         <v>165</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="2"/>
+        <f>B147&amp;": "&amp;C147</f>
         <v>date_treat25: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B148" t="s">
         <v>146</v>
@@ -3460,13 +3467,13 @@
         <v>165</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="2"/>
+        <f>B148&amp;": "&amp;C148</f>
         <v>date_treat26: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B149" t="s">
         <v>147</v>
@@ -3475,13 +3482,13 @@
         <v>165</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="2"/>
+        <f>B149&amp;": "&amp;C149</f>
         <v>date_treat27: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B150" t="s">
         <v>148</v>
@@ -3490,13 +3497,13 @@
         <v>165</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="2"/>
+        <f>B150&amp;": "&amp;C150</f>
         <v>date_treat28: Date dynamical infecting intensity estimation, 0 = 2020-03-04</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B151" t="s">
         <v>149</v>
@@ -3505,13 +3512,13 @@
         <v>159</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="2"/>
+        <f>B151&amp;": "&amp;C151</f>
         <v>Iamuinit: Initial percentage of mutated virus strain</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B152" t="s">
         <v>150</v>
@@ -3520,13 +3527,13 @@
         <v>160</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="2"/>
+        <f>B152&amp;": "&amp;C152</f>
         <v>date_mu: date of initiation of mutated virus strain</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B153" t="s">
         <v>151</v>
@@ -3535,13 +3542,13 @@
         <v>161</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="2"/>
+        <f>B153&amp;": "&amp;C153</f>
         <v>mur: factor on r1 r2 reflecting higher growth of mutated virus strain</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B154" t="s">
         <v>152</v>
@@ -3550,13 +3557,13 @@
         <v>172</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="2"/>
+        <f>B154&amp;": "&amp;C154</f>
         <v>virt_par: interne kontrolle weg</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B155" t="s">
         <v>163</v>
@@ -3565,23 +3572,23 @@
         <v>170</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="2"/>
+        <f>B155&amp;": "&amp;C155</f>
         <v>rb12: weg!</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B156" t="s">
         <v>164</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="2"/>
+        <f>B156&amp;": "&amp;C156</f>
         <v xml:space="preserve">Deltr: </v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>189</v>
       </c>
@@ -3589,14 +3596,14 @@
         <v>175</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="2"/>
+        <f>B157&amp;": "&amp;C157</f>
         <v>rinflux1: Infection influx from other regions A00-A14</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>189</v>
       </c>
@@ -3604,14 +3611,14 @@
         <v>176</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="2"/>
+        <f>B158&amp;": "&amp;C158</f>
         <v>rinflux2: Infection influx from other regions A15-A34</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>189</v>
       </c>
@@ -3619,14 +3626,14 @@
         <v>177</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="2"/>
+        <f>B159&amp;": "&amp;C159</f>
         <v>rinflux3: Infection influx from other regions A35-A59</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>189</v>
       </c>
@@ -3634,16 +3641,16 @@
         <v>178</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="2"/>
+        <f>B160&amp;": "&amp;C160</f>
         <v>rinflux4: Infection influx from other regions A60-A79</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B161" t="s">
         <v>179</v>
@@ -3652,13 +3659,13 @@
         <v>195</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="2"/>
+        <f>B161&amp;": "&amp;C161</f>
         <v>alleleengl_fr_0: Initial fraction alpha variant</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B162" t="s">
         <v>180</v>
@@ -3667,13 +3674,13 @@
         <v>196</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="2"/>
+        <f>B162&amp;": "&amp;C162</f>
         <v>allele_delta_fr0: Initial fraction delta variant</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B163" t="s">
         <v>181</v>
@@ -3682,13 +3689,13 @@
         <v>197</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="2"/>
+        <f>B163&amp;": "&amp;C163</f>
         <v>allele_omicron_fr0: Initial fraction BA1 variant</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B164" t="s">
         <v>182</v>
@@ -3697,28 +3704,28 @@
         <v>198</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="2"/>
+        <f>B164&amp;": "&amp;C164</f>
         <v>allele_BA2_fr0: Initial fraction BA2 variant</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="2"/>
-        <v>initallele_BA5: Initial fraction BA5 variant</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+        <f>B165&amp;": "&amp;C165</f>
+        <v>dateallele_BA5: Initial date BA5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B166" t="s">
         <v>184</v>
@@ -3727,13 +3734,13 @@
         <v>190</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="2"/>
+        <f>B166&amp;": "&amp;C166</f>
         <v>ri_alpha_engl: Modifier infectivity alpha variant</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B167" t="s">
         <v>185</v>
@@ -3742,13 +3749,13 @@
         <v>191</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="2"/>
+        <f>B167&amp;": "&amp;C167</f>
         <v>r_i_engl_delta: Modifier infectivity delta variant</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B168" t="s">
         <v>186</v>
@@ -3757,13 +3764,13 @@
         <v>192</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="2"/>
+        <f>B168&amp;": "&amp;C168</f>
         <v>ri_delta__omicron: Modifier infectivity BA1 variant</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B169" t="s">
         <v>187</v>
@@ -3772,13 +3779,13 @@
         <v>193</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="2"/>
+        <f>B169&amp;": "&amp;C169</f>
         <v>ri_omicron_BA2: Modifier infectivity BA2 variant</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B170" t="s">
         <v>188</v>
@@ -3787,522 +3794,572 @@
         <v>194</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="2"/>
+        <f>B170&amp;": "&amp;C170</f>
         <v>ri_BA2__BA5: Modifier infectivity BA5 variant</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>189</v>
       </c>
       <c r="B171" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="2"/>
+        <f>B171&amp;": "&amp;C171</f>
         <v>pcrit_alpha: Modifier rate I&gt;C (ICU) Wildtype</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>189</v>
       </c>
       <c r="B172" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="2"/>
+        <f>B172&amp;": "&amp;C172</f>
         <v>pcrit_alpha_engl: Modifier rate I&gt;C (ICU) Alpha</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>189</v>
       </c>
       <c r="B173" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" si="2"/>
+        <f>B173&amp;": "&amp;C173</f>
         <v>pcrit_alpha_delta: Modifier rate I&gt;C (ICU) Delta</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>189</v>
       </c>
       <c r="B174" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="2"/>
+        <f>B174&amp;": "&amp;C174</f>
         <v>pcrit_alpha_omicron: Modifier rate I&gt;C (ICU) BA1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>189</v>
       </c>
       <c r="B175" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="2"/>
+        <f>B175&amp;": "&amp;C175</f>
         <v>pcrit_alpha_BA2: Modifier rate I&gt;C (ICU) BA2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>189</v>
       </c>
       <c r="B176" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="2"/>
+        <f>B176&amp;": "&amp;C176</f>
         <v>pcrit_alpha_BA5: Modifier rate I&gt;C (ICU) BA5</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>189</v>
       </c>
       <c r="B177" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" si="2"/>
+        <f>B177&amp;": "&amp;C177</f>
         <v>pdeath_alpha: Modifier rate I&gt;D (death)  Wildtype</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>189</v>
       </c>
       <c r="B178" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" si="2"/>
+        <f>B178&amp;": "&amp;C178</f>
         <v>pdeath_engl: Modifier rate I&gt;D (death)  Alpha</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>189</v>
       </c>
       <c r="B179" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" si="2"/>
+        <f>B179&amp;": "&amp;C179</f>
         <v>pdeath_delta: Modifier rate I&gt;D (death)  Delta</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>189</v>
       </c>
       <c r="B180" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="2"/>
+        <f>B180&amp;": "&amp;C180</f>
         <v>pdeath_omicron: Modifier rate I&gt;D (death)  BA1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>189</v>
       </c>
       <c r="B181" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="2"/>
+        <f>B181&amp;": "&amp;C181</f>
         <v>pdeath_BA2: Modifier rate I&gt;D (death)  BA2</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>189</v>
       </c>
       <c r="B182" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="2"/>
+        <f>B182&amp;": "&amp;C182</f>
         <v>pdeath_BA5: Modifier rate I&gt;D (death)  BA5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>189</v>
       </c>
       <c r="B183" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" si="2"/>
+        <f>B183&amp;": "&amp;C183</f>
         <v>pnorm_alpha: Modifier Rate I&gt;N (hospitalisation) Wildtype</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>189</v>
       </c>
       <c r="B184" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="2"/>
+        <f>B184&amp;": "&amp;C184</f>
         <v>pnorm_engl: Modifier Rate I&gt;N (hospitalisation) Alpha</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>189</v>
       </c>
       <c r="B185" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="2"/>
+        <f>B185&amp;": "&amp;C185</f>
         <v>pnorm_delta: Modifier Rate I&gt;N (hospitalisation) Delta</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="2"/>
+        <f>B186&amp;": "&amp;C186</f>
         <v>pnorm_omicron: Modifier Rate I&gt;N (hospitalisation) BA1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="2"/>
+        <f>B187&amp;": "&amp;C187</f>
         <v>pnorm_BA2: Modifier Rate I&gt;N (hospitalisation) BA2</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="2"/>
+        <f>B188&amp;": "&amp;C188</f>
         <v>pnorm_BA5: Modifier Rate I&gt;N (hospitalisation) BA5</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B189" t="s">
+        <v>244</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D189" t="str">
+        <f>B189&amp;": "&amp;C189</f>
+        <v>dateallele_delta: Initial date Delta</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>253</v>
+      </c>
+      <c r="B190" t="s">
+        <v>243</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D190" t="str">
+        <f>B190&amp;": "&amp;C190</f>
+        <v>dateallele_engl: Initial date Alpha</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>253</v>
+      </c>
+      <c r="B191" t="s">
+        <v>245</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D191" t="str">
+        <f>B191&amp;": "&amp;C191</f>
+        <v>dateallele_omicron: Initial date BA1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>189</v>
+      </c>
+      <c r="B192" t="s">
+        <v>284</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D192" t="str">
+        <f>B192&amp;": "&amp;C192</f>
+        <v>dateallele_Wildtype: Initial date Wildtype</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>199</v>
+      </c>
+      <c r="B193" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D193" t="str">
+        <f>B193&amp;": "&amp;C193</f>
+        <v>influx: Initial number of Wildtype</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>253</v>
+      </c>
+      <c r="B194" t="s">
+        <v>240</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D194" t="str">
+        <f>B194&amp;": "&amp;C194</f>
+        <v>initallele_BA2: Initial number BA2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>189</v>
+      </c>
+      <c r="B195" t="s">
+        <v>183</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D195" t="str">
+        <f>B195&amp;": "&amp;C195</f>
+        <v>initallele_BA5: Initial number BA5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>253</v>
+      </c>
+      <c r="B196" t="s">
+        <v>241</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D196" t="str">
+        <f>B196&amp;": "&amp;C196</f>
+        <v>initallele_BAX: Initial number BAX</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>253</v>
+      </c>
+      <c r="B197" t="s">
+        <v>242</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D197" t="str">
+        <f>B197&amp;": "&amp;C197</f>
+        <v>initallele_BAY: Initial number BAY</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>253</v>
+      </c>
+      <c r="B198" t="s">
         <v>238</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D189" t="str">
-        <f t="shared" si="2"/>
-        <v>initallele_engl: Initial number alpha variant</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>254</v>
-      </c>
-      <c r="B190" t="s">
-        <v>239</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D190" t="str">
-        <f t="shared" si="2"/>
-        <v>initallele_delta: Initial number delta variant</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>254</v>
-      </c>
-      <c r="B191" t="s">
-        <v>240</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D191" t="str">
-        <f t="shared" si="2"/>
-        <v>initallele_omicron: Initial number BA1 variant</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>254</v>
-      </c>
-      <c r="B192" t="s">
-        <v>241</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D192" t="str">
-        <f t="shared" si="2"/>
-        <v>initallele_BA2: Initial number BA2 variant</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>254</v>
-      </c>
-      <c r="B193" t="s">
-        <v>242</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D193" t="str">
-        <f t="shared" si="2"/>
-        <v>initallele_BAX: Initial number BAX variant</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>254</v>
-      </c>
-      <c r="B194" t="s">
-        <v>243</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D194" t="str">
-        <f t="shared" ref="D194:D204" si="3">B194&amp;": "&amp;C194</f>
-        <v>initallele_BAY: Initial number BAY variant</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>254</v>
-      </c>
-      <c r="B195" t="s">
-        <v>244</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D195" t="str">
-        <f t="shared" si="3"/>
-        <v>dateallele_engl: Initial date alpha variant</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>254</v>
-      </c>
-      <c r="B196" t="s">
-        <v>245</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D196" t="str">
-        <f t="shared" si="3"/>
-        <v>dateallele_delta: Initial date delta variant</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>254</v>
-      </c>
-      <c r="B197" t="s">
-        <v>246</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D197" t="str">
-        <f t="shared" si="3"/>
-        <v>dateallele_omicron: Initial date BA1 variant</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>254</v>
-      </c>
-      <c r="B198" t="s">
-        <v>247</v>
-      </c>
       <c r="C198" s="1" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="3"/>
-        <v>dateallele_BA2: Initial date BA2 variant</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+        <f>B198&amp;": "&amp;C198</f>
+        <v>initallele_delta: Initial number Delta</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B199" t="s">
+        <v>237</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D199" t="str">
+        <f>B199&amp;": "&amp;C199</f>
+        <v>initallele_engl: Initial number Alpha</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>253</v>
+      </c>
+      <c r="B200" t="s">
         <v>248</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D199" t="str">
-        <f t="shared" si="3"/>
-        <v>dateallele_BA5: Initial date BA5 variant</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>254</v>
-      </c>
-      <c r="B200" t="s">
-        <v>249</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="3"/>
+        <f>B200&amp;": "&amp;C200</f>
         <v>rallele_engl: Modifier infectivity alpha variant</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B201" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="3"/>
+        <f>B201&amp;": "&amp;C201</f>
         <v>rallele_delta: Modifier infectivity delta variant</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B202" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>192</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="3"/>
+        <f>B202&amp;": "&amp;C202</f>
         <v>rallele_omicron: Modifier infectivity BA1 variant</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B203" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="3"/>
+        <f>B203&amp;": "&amp;C203</f>
         <v>rallele_BA2: Modifier infectivity BA2 variant</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B204" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="3"/>
+        <f>B204&amp;": "&amp;C204</f>
         <v>rallele_BA5: Modifier infectivity BA5 variant</v>
       </c>
     </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>253</v>
+      </c>
+      <c r="B205" t="s">
+        <v>239</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D205" t="str">
+        <f>B205&amp;": "&amp;C205</f>
+        <v>initallele_omicron: Initial number BA1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D204" xr:uid="{D1F8F582-6BE7-4044-AA3E-59E083F8B618}"/>
+  <autoFilter ref="A1:D204" xr:uid="{D1F8F582-6BE7-4044-AA3E-59E083F8B618}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="basicpaper"/>
+        <filter val="param230626"/>
+        <filter val="parameter_explanation_230925"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="date of initiation of mutated virus strain"/>
+        <filter val="Initial date Alpha"/>
+        <filter val="Initial date BA1"/>
+        <filter val="Initial date BA2"/>
+        <filter val="Initial date BA5"/>
+        <filter val="Initial date Delta"/>
+        <filter val="Initial fraction alpha variant"/>
+        <filter val="Initial fraction BA1 variant"/>
+        <filter val="Initial fraction BA2 variant"/>
+        <filter val="Initial fraction BA5"/>
+        <filter val="Initial fraction delta variant"/>
+        <filter val="Initial number Alpha"/>
+        <filter val="Initial number BA1"/>
+        <filter val="Initial number BA2"/>
+        <filter val="Initial number BAX"/>
+        <filter val="Initial number BAY"/>
+        <filter val="Initial number Delta"/>
+        <filter val="Initial number of Wildtype"/>
+        <filter val="Initial percentage of mutated virus strain"/>
+        <filter val="Initial value for asymptomatic first compartment"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:D205">
+      <sortCondition ref="B1:B204"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
